--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.76012233333333</v>
+        <v>27.24688066666667</v>
       </c>
       <c r="H2">
-        <v>50.280367</v>
+        <v>81.74064200000001</v>
       </c>
       <c r="I2">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547477</v>
       </c>
       <c r="J2">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>1.818897862932445</v>
+        <v>60.35067814309155</v>
       </c>
       <c r="R2">
-        <v>16.370080766392</v>
+        <v>543.156103287824</v>
       </c>
       <c r="S2">
-        <v>0.03708058329506283</v>
+        <v>0.8234694596311224</v>
       </c>
       <c r="T2">
-        <v>0.03708058329506283</v>
+        <v>0.8234694596311223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.76012233333333</v>
+        <v>27.24688066666667</v>
       </c>
       <c r="H3">
-        <v>50.280367</v>
+        <v>81.74064200000001</v>
       </c>
       <c r="I3">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547477</v>
       </c>
       <c r="J3">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>37.12295586978043</v>
+        <v>7.469677841005334</v>
       </c>
       <c r="R3">
-        <v>334.1066028280239</v>
+        <v>67.22710056904801</v>
       </c>
       <c r="S3">
-        <v>0.7567994252679272</v>
+        <v>0.1019218302861002</v>
       </c>
       <c r="T3">
-        <v>0.7567994252679273</v>
+        <v>0.1019218302861001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.76012233333333</v>
+        <v>27.24688066666667</v>
       </c>
       <c r="H4">
-        <v>50.280367</v>
+        <v>81.74064200000001</v>
       </c>
       <c r="I4">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547477</v>
       </c>
       <c r="J4">
-        <v>0.9020309505585877</v>
+        <v>0.9344428125547476</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>5.305081522169999</v>
+        <v>0.6633707212977779</v>
       </c>
       <c r="R4">
-        <v>47.74573369952999</v>
+        <v>5.97033649168</v>
       </c>
       <c r="S4">
-        <v>0.1081509419955977</v>
+        <v>0.009051522637525176</v>
       </c>
       <c r="T4">
-        <v>0.1081509419955977</v>
+        <v>0.009051522637525173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,43 +726,43 @@
         <v>0.287584</v>
       </c>
       <c r="H5">
-        <v>0.8627520000000001</v>
+        <v>0.862752</v>
       </c>
       <c r="I5">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399298</v>
       </c>
       <c r="J5">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N5">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q5">
-        <v>0.03121014946133334</v>
+        <v>0.6369862897493332</v>
       </c>
       <c r="R5">
-        <v>0.280891345152</v>
+        <v>5.732876607743999</v>
       </c>
       <c r="S5">
-        <v>0.0006362592261703669</v>
+        <v>0.008691513864494361</v>
       </c>
       <c r="T5">
-        <v>0.0006362592261703669</v>
+        <v>0.008691513864494359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>0.287584</v>
       </c>
       <c r="H6">
-        <v>0.8627520000000001</v>
+        <v>0.862752</v>
       </c>
       <c r="I6">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399298</v>
       </c>
       <c r="J6">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N6">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O6">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P6">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q6">
-        <v>0.6369862897493332</v>
+        <v>0.078840578432</v>
       </c>
       <c r="R6">
-        <v>5.732876607744</v>
+        <v>0.709565205888</v>
       </c>
       <c r="S6">
-        <v>0.01298578862299782</v>
+        <v>0.001075759386903194</v>
       </c>
       <c r="T6">
-        <v>0.01298578862299782</v>
+        <v>0.001075759386903194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,43 +850,43 @@
         <v>0.287584</v>
       </c>
       <c r="H7">
-        <v>0.8627520000000001</v>
+        <v>0.862752</v>
       </c>
       <c r="I7">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399298</v>
       </c>
       <c r="J7">
-        <v>0.01547779089711741</v>
+        <v>0.009862809805399296</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N7">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q7">
-        <v>0.09102896351999999</v>
+        <v>0.007001711786666667</v>
       </c>
       <c r="R7">
-        <v>0.8192606716800001</v>
+        <v>0.06301540607999999</v>
       </c>
       <c r="S7">
-        <v>0.00185574304794923</v>
+        <v>9.553655400174273E-05</v>
       </c>
       <c r="T7">
-        <v>0.00185574304794923</v>
+        <v>9.55365540017427E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,46 +909,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09961666666666667</v>
+        <v>0.2337766666666667</v>
       </c>
       <c r="H8">
-        <v>0.29885</v>
+        <v>0.70133</v>
       </c>
       <c r="I8">
-        <v>0.005361375933760269</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="J8">
-        <v>0.005361375933760268</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N8">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q8">
-        <v>0.01081093195555556</v>
+        <v>0.5178053421955555</v>
       </c>
       <c r="R8">
-        <v>0.09729838760000001</v>
+        <v>4.66024807976</v>
       </c>
       <c r="S8">
-        <v>0.0002203948176776341</v>
+        <v>0.007065320530796602</v>
       </c>
       <c r="T8">
-        <v>0.000220394817677634</v>
+        <v>0.007065320530796602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09961666666666667</v>
+        <v>0.2337766666666667</v>
       </c>
       <c r="H9">
-        <v>0.29885</v>
+        <v>0.70133</v>
       </c>
       <c r="I9">
-        <v>0.005361375933760269</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="J9">
-        <v>0.005361375933760268</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N9">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O9">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P9">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q9">
-        <v>0.2206466663555555</v>
+        <v>0.06408940561333333</v>
       </c>
       <c r="R9">
-        <v>1.9858199972</v>
+        <v>0.5768046505200001</v>
       </c>
       <c r="S9">
-        <v>0.004498167410777254</v>
+        <v>0.0008744834330338464</v>
       </c>
       <c r="T9">
-        <v>0.004498167410777254</v>
+        <v>0.0008744834330338464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09961666666666667</v>
+        <v>0.2337766666666667</v>
       </c>
       <c r="H10">
-        <v>0.29885</v>
+        <v>0.70133</v>
       </c>
       <c r="I10">
-        <v>0.005361375933760269</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="J10">
-        <v>0.005361375933760268</v>
+        <v>0.008017465506681745</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N10">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q10">
-        <v>0.0315316635</v>
+        <v>0.005691682577777777</v>
       </c>
       <c r="R10">
-        <v>0.2837849715</v>
+        <v>0.0512251432</v>
       </c>
       <c r="S10">
-        <v>0.0006428137053053803</v>
+        <v>7.766154285129704E-05</v>
       </c>
       <c r="T10">
-        <v>0.0006428137053053802</v>
+        <v>7.766154285129702E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.433106333333333</v>
+        <v>1.390183666666666</v>
       </c>
       <c r="H11">
-        <v>4.299319</v>
+        <v>4.170551</v>
       </c>
       <c r="I11">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="J11">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N11">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q11">
-        <v>0.1555283425271111</v>
+        <v>3.079197507163555</v>
       </c>
       <c r="R11">
-        <v>1.399755082744</v>
+        <v>27.712777564472</v>
       </c>
       <c r="S11">
-        <v>0.003170646234375064</v>
+        <v>0.04201485692189739</v>
       </c>
       <c r="T11">
-        <v>0.003170646234375064</v>
+        <v>0.04201485692189739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.433106333333333</v>
+        <v>1.390183666666666</v>
       </c>
       <c r="H12">
-        <v>4.299319</v>
+        <v>4.170551</v>
       </c>
       <c r="I12">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="J12">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N12">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O12">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P12">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q12">
-        <v>3.17426938246311</v>
+        <v>0.3811160718493333</v>
       </c>
       <c r="R12">
-        <v>28.56842444216799</v>
+        <v>3.430044646644</v>
       </c>
       <c r="S12">
-        <v>0.06471158311639769</v>
+        <v>0.005200230641955629</v>
       </c>
       <c r="T12">
-        <v>0.0647115831163977</v>
+        <v>0.005200230641955629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.433106333333333</v>
+        <v>1.390183666666666</v>
       </c>
       <c r="H13">
-        <v>4.299319</v>
+        <v>4.170551</v>
       </c>
       <c r="I13">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="J13">
-        <v>0.07712988261053458</v>
+        <v>0.04767691213317134</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N13">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q13">
-        <v>0.4536211476899999</v>
+        <v>0.03384633833777777</v>
       </c>
       <c r="R13">
-        <v>4.082590329209999</v>
+        <v>0.3046170450399999</v>
       </c>
       <c r="S13">
-        <v>0.009247653259761826</v>
+        <v>0.0004618245693183233</v>
       </c>
       <c r="T13">
-        <v>0.009247653259761826</v>
+        <v>0.0004618245693183232</v>
       </c>
     </row>
   </sheetData>
